--- a/docs/packages/CDVM/test cases/verification_templates/category_5_DVM_issue_verification.xlsx
+++ b/docs/packages/CDVM/test cases/verification_templates/category_5_DVM_issue_verification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse.Abdul\Documents\Version Control\Git\centralized-cruise-database\docs\test cases\DVM_PKG\verification_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\centralized-cruise-database\docs\packages\CDVM\test cases\verification_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="CCD_CRUISE_SUMM_ERR_V" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="118">
   <si>
     <t>CRUISE_NAME</t>
   </si>
@@ -343,6 +343,39 @@
   </si>
   <si>
     <t>There are two legs for the same Vessel (Oscar Elton Sette) whose leg dates overlap; Leg 1: (Cruise: SE-22-02, Leg Name: SE-22-02 Leg 1, Start Date: 12/01/2021, End Date: 12/14/2021), Leg 2: (Cruise: SE-22-01, Leg Name: SE-22-01 Leg 2, Start Date: 11/15/2021, End Date: 12/04/2021)</t>
+  </si>
+  <si>
+    <t>HI-19-02</t>
+  </si>
+  <si>
+    <t>HI-19-02 Leg 1, HI-19-02 Leg 2</t>
+  </si>
+  <si>
+    <t>Missing Leg Data Set</t>
+  </si>
+  <si>
+    <t>The Leg does not have any data sets defined for it</t>
+  </si>
+  <si>
+    <t>The Cruise (HI-19-02) has a Cruise Leg (HI-19-02 Leg 1) on the Vessel (Hi'ialakai) with a Start Date (12/01/2018) and End Date (12/09/2018) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>MISS_DATA_SET_YN</t>
+  </si>
+  <si>
+    <t>The Cruise (HI1101) has a Cruise Leg (HA1101_LEG_III) on the Vessel (Hi'ialakai) with a Start Date (05/12/2011) and End Date (07/24/2011) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>SE-20-04</t>
+  </si>
+  <si>
+    <t>SE-20-04 Leg 1</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-22-02) has a Cruise Leg (SE-22-02 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (12/01/2021) and End Date (12/14/2021) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-20-04) has a Cruise Leg (SE-20-04 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (03/20/2020) and End Date (04/15/2020) that does not have at least one data set associated with it</t>
   </si>
 </sst>
 </file>
@@ -677,11 +710,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,35 +886,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>69</v>
@@ -893,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
@@ -901,10 +934,10 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
@@ -916,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
@@ -924,10 +957,10 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
@@ -939,36 +972,36 @@
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -979,19 +1012,19 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1002,19 +1035,19 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1025,19 +1058,19 @@
         <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1045,19 +1078,19 @@
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1071,16 +1104,16 @@
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1094,65 +1127,65 @@
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1160,68 +1193,68 @@
         <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1229,73 +1262,73 @@
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>69</v>
@@ -1307,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>13</v>
@@ -1315,10 +1348,10 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>69</v>
@@ -1330,13 +1363,13 @@
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>99</v>
       </c>
@@ -1344,27 +1377,27 @@
         <v>100</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>69</v>
@@ -1376,64 +1409,64 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
+        <v>109</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>69</v>
@@ -1445,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1453,10 +1486,10 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>69</v>
@@ -1468,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>
@@ -1476,10 +1509,10 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>69</v>
@@ -1491,10 +1524,102 @@
         <v>11</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1509,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G35"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,33 +1814,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -1727,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1735,10 +1860,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1750,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1758,10 +1883,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1773,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1781,25 +1906,25 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,16 +1938,16 @@
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,16 +1961,16 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,16 +1984,16 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,19 +2004,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,16 +2030,16 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,62 +2053,62 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,65 +2119,65 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,73 +2188,73 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -2141,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -2149,10 +2274,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -2164,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -2178,27 +2303,27 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -2210,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2218,56 +2343,56 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>69</v>
@@ -2279,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -2287,10 +2412,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -2302,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -2310,10 +2435,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -2325,14 +2450,107 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2340,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2810,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A8</f>
-        <v>HI-20-08</v>
+        <v>HI-19-02</v>
       </c>
       <c r="B8" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A8,'Database Export'!A8)</f>
@@ -2626,7 +2844,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A9</f>
-        <v>HI-20-09</v>
+        <v>HI-20-08</v>
       </c>
       <c r="B9" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A9,'Database Export'!A9)</f>
@@ -2660,7 +2878,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A10</f>
-        <v>HI-21-06</v>
+        <v>HI-20-09</v>
       </c>
       <c r="B10" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A10,'Database Export'!A10)</f>
@@ -2694,7 +2912,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A11</f>
-        <v>HI-21-07</v>
+        <v>HI-21-06</v>
       </c>
       <c r="B11" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A11,'Database Export'!A11)</f>
@@ -2728,7 +2946,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A12</f>
-        <v>HI1101</v>
+        <v>HI-21-07</v>
       </c>
       <c r="B12" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A12,'Database Export'!A12)</f>
@@ -2966,7 +3184,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A19</f>
-        <v>HI1102</v>
+        <v>HI1101</v>
       </c>
       <c r="B19" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A19,'Database Export'!A19)</f>
@@ -3000,7 +3218,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A20</f>
-        <v>HI1102</v>
+        <v>HI1101</v>
       </c>
       <c r="B20" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A20,'Database Export'!A20)</f>
@@ -3068,7 +3286,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A22</f>
-        <v>SE-15-01</v>
+        <v>HI1102</v>
       </c>
       <c r="B22" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A22,'Database Export'!A22)</f>
@@ -3102,7 +3320,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A23</f>
-        <v>SE-15-01</v>
+        <v>HI1102</v>
       </c>
       <c r="B23" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A23,'Database Export'!A23)</f>
@@ -3170,7 +3388,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A25</f>
-        <v>SE-19-04</v>
+        <v>SE-15-01</v>
       </c>
       <c r="B25" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A25,'Database Export'!A25)</f>
@@ -3204,7 +3422,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A26</f>
-        <v>SE-19-04</v>
+        <v>SE-15-01</v>
       </c>
       <c r="B26" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A26,'Database Export'!A26)</f>
@@ -3238,7 +3456,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A27</f>
-        <v>SE-19-05</v>
+        <v>SE-19-04</v>
       </c>
       <c r="B27" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A27,'Database Export'!A27)</f>
@@ -3272,7 +3490,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A28</f>
-        <v>SE-19-05</v>
+        <v>SE-19-04</v>
       </c>
       <c r="B28" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A28,'Database Export'!A28)</f>
@@ -3340,7 +3558,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A30</f>
-        <v>SE-21-07</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B30" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A30,'Database Export'!A30)</f>
@@ -3374,7 +3592,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A31</f>
-        <v>SE-21-07</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B31" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A31,'Database Export'!A31)</f>
@@ -3408,7 +3626,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A32</f>
-        <v>SE-21-09</v>
+        <v>SE-20-04</v>
       </c>
       <c r="B32" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A32,'Database Export'!A32)</f>
@@ -3442,7 +3660,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A33</f>
-        <v>SE-21-09</v>
+        <v>SE-21-07</v>
       </c>
       <c r="B33" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A33,'Database Export'!A33)</f>
@@ -3476,7 +3694,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A34</f>
-        <v>SE-22-01</v>
+        <v>SE-21-07</v>
       </c>
       <c r="B34" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A34,'Database Export'!A34)</f>
@@ -3510,7 +3728,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A35</f>
-        <v>SE-22-02</v>
+        <v>SE-21-09</v>
       </c>
       <c r="B35" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A35,'Database Export'!A35)</f>
@@ -3542,9 +3760,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A36</f>
-        <v>0</v>
+        <v>SE-21-09</v>
       </c>
       <c r="B36" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A36,'Database Export'!A36)</f>
@@ -3576,9 +3794,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A37</f>
-        <v>0</v>
+        <v>SE-22-01</v>
       </c>
       <c r="B37" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A37,'Database Export'!A37)</f>
@@ -3610,9 +3828,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A38</f>
-        <v>0</v>
+        <v>SE-22-02</v>
       </c>
       <c r="B38" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A38,'Database Export'!A38)</f>
@@ -3644,9 +3862,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A39</f>
-        <v>0</v>
+        <v>SE-22-02</v>
       </c>
       <c r="B39" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A39,'Database Export'!A39)</f>

--- a/docs/packages/CDVM/test cases/verification_templates/category_5_DVM_issue_verification.xlsx
+++ b/docs/packages/CDVM/test cases/verification_templates/category_5_DVM_issue_verification.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="127">
   <si>
     <t>CRUISE_NAME</t>
   </si>
@@ -376,6 +376,33 @@
   </si>
   <si>
     <t>The Cruise (SE-20-04) has a Cruise Leg (SE-20-04 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (03/20/2020) and End Date (04/15/2020) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>Invalid Leg Timezone</t>
+  </si>
+  <si>
+    <t>The leg's timezone does not match a timezone value in the Oracle reference list</t>
+  </si>
+  <si>
+    <t>The Cruise (HI-20-08) has a Cruise Leg (HI-20-08 Leg 1) on the Vessel (Hi'ialakai) with a Start Date (06/10/2020) and End Date (06/29/2020) has an invalid timezone (Something else) specified for it</t>
+  </si>
+  <si>
+    <t>INV_TZ_NAME_YN</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-19-04) has a Cruise Leg (SE-19-04 Leg 2) on the Vessel (Hi'ialakai) with a Start Date (06/19/2019) and End Date (07/12/2019) has an invalid timezone (Mountain/Pacific Time) specified for it</t>
+  </si>
+  <si>
+    <t>SE-21-01</t>
+  </si>
+  <si>
+    <t>SE-21-01 Leg 1, SE-21-01 Leg 2</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-21-01) has a Cruise Leg (SE-21-01 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (10/15/2020) and End Date (10/30/2020) has an invalid timezone (IDK What is this field?) specified for it</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-22-01) has a Cruise Leg (SE-22-01 Leg 2) on the Vessel (Oscar Elton Sette) with a Start Date (11/15/2021) and End Date (12/04/2021) has an invalid timezone (Eastern US Time) specified for it</t>
   </si>
 </sst>
 </file>
@@ -710,11 +737,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +936,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
@@ -920,24 +947,24 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>118</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
@@ -949,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
@@ -957,10 +984,10 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
@@ -972,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
@@ -980,10 +1007,10 @@
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
@@ -995,36 +1022,36 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1035,19 +1062,19 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1058,19 +1085,19 @@
         <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1081,19 +1108,19 @@
         <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1101,19 +1128,19 @@
         <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1127,16 +1154,16 @@
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1150,16 +1177,16 @@
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1173,42 +1200,42 @@
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1219,19 +1246,19 @@
         <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1239,42 +1266,42 @@
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1294,13 +1321,13 @@
         <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1308,45 +1335,45 @@
         <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>97</v>
       </c>
@@ -1357,24 +1384,24 @@
         <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>118</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>69</v>
@@ -1386,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>13</v>
@@ -1394,10 +1421,10 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>69</v>
@@ -1409,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>99</v>
       </c>
@@ -1423,119 +1450,119 @@
         <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>118</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>69</v>
@@ -1547,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>13</v>
@@ -1555,10 +1582,10 @@
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>69</v>
@@ -1570,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>13</v>
@@ -1578,10 +1605,10 @@
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>69</v>
@@ -1593,32 +1620,124 @@
         <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1634,16 +1753,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="203.28515625" bestFit="1" customWidth="1"/>
@@ -1846,24 +1965,24 @@
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1875,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1883,10 +2002,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1898,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1906,10 +2025,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1921,7 +2040,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1929,25 +2048,25 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,16 +2080,16 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,16 +2103,16 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,16 +2126,16 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2027,19 +2146,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2053,16 +2172,16 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,16 +2195,16 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,39 +2218,39 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,16 +2264,16 @@
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,42 +2284,42 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2220,7 +2339,7 @@
         <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
@@ -2234,42 +2353,42 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2283,24 +2402,24 @@
         <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -2312,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2320,10 +2439,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -2335,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2349,119 +2468,119 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -2473,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -2481,10 +2600,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>69</v>
@@ -2496,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -2504,10 +2623,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>69</v>
@@ -2519,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -2527,24 +2646,116 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D43" t="s">
         <v>109</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E43" t="s">
         <v>110</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F43" t="s">
         <v>116</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G43" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2559,7 +2770,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +3089,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A10</f>
-        <v>HI-20-09</v>
+        <v>HI-20-08</v>
       </c>
       <c r="B10" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A10,'Database Export'!A10)</f>
@@ -2912,7 +3123,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A11</f>
-        <v>HI-21-06</v>
+        <v>HI-20-09</v>
       </c>
       <c r="B11" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A11,'Database Export'!A11)</f>
@@ -2946,7 +3157,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A12</f>
-        <v>HI-21-07</v>
+        <v>HI-21-06</v>
       </c>
       <c r="B12" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A12,'Database Export'!A12)</f>
@@ -2980,7 +3191,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A13</f>
-        <v>HI1101</v>
+        <v>HI-21-07</v>
       </c>
       <c r="B13" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A13,'Database Export'!A13)</f>
@@ -3252,7 +3463,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A21</f>
-        <v>HI1102</v>
+        <v>HI1101</v>
       </c>
       <c r="B21" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A21,'Database Export'!A21)</f>
@@ -3354,7 +3565,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A24</f>
-        <v>SE-15-01</v>
+        <v>HI1102</v>
       </c>
       <c r="B24" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A24,'Database Export'!A24)</f>
@@ -3456,7 +3667,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A27</f>
-        <v>SE-19-04</v>
+        <v>SE-15-01</v>
       </c>
       <c r="B27" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A27,'Database Export'!A27)</f>
@@ -3524,7 +3735,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A29</f>
-        <v>SE-19-05</v>
+        <v>SE-19-04</v>
       </c>
       <c r="B29" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A29,'Database Export'!A29)</f>
@@ -3558,7 +3769,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A30</f>
-        <v>SE-19-05</v>
+        <v>SE-19-04</v>
       </c>
       <c r="B30" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A30,'Database Export'!A30)</f>
@@ -3626,7 +3837,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A32</f>
-        <v>SE-20-04</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B32" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A32,'Database Export'!A32)</f>
@@ -3660,7 +3871,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A33</f>
-        <v>SE-21-07</v>
+        <v>SE-19-05</v>
       </c>
       <c r="B33" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A33,'Database Export'!A33)</f>
@@ -3694,7 +3905,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A34</f>
-        <v>SE-21-07</v>
+        <v>SE-20-04</v>
       </c>
       <c r="B34" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A34,'Database Export'!A34)</f>
@@ -3728,7 +3939,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A35</f>
-        <v>SE-21-09</v>
+        <v>SE-21-01</v>
       </c>
       <c r="B35" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A35,'Database Export'!A35)</f>
@@ -3762,7 +3973,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A36</f>
-        <v>SE-21-09</v>
+        <v>SE-21-07</v>
       </c>
       <c r="B36" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A36,'Database Export'!A36)</f>
@@ -3796,7 +4007,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A37</f>
-        <v>SE-22-01</v>
+        <v>SE-21-07</v>
       </c>
       <c r="B37" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A37,'Database Export'!A37)</f>
@@ -3830,7 +4041,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A38</f>
-        <v>SE-22-02</v>
+        <v>SE-21-09</v>
       </c>
       <c r="B38" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A38,'Database Export'!A38)</f>
@@ -3864,7 +4075,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A39</f>
-        <v>SE-22-02</v>
+        <v>SE-21-09</v>
       </c>
       <c r="B39" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A39,'Database Export'!A39)</f>
@@ -3896,9 +4107,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A40</f>
-        <v>0</v>
+        <v>SE-22-01</v>
       </c>
       <c r="B40" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A40,'Database Export'!A40)</f>
@@ -3930,9 +4141,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A41</f>
-        <v>0</v>
+        <v>SE-22-01</v>
       </c>
       <c r="B41" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A41,'Database Export'!A41)</f>
@@ -3964,9 +4175,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A42</f>
-        <v>0</v>
+        <v>SE-22-02</v>
       </c>
       <c r="B42" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A42,'Database Export'!A42)</f>
@@ -3998,9 +4209,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A43</f>
-        <v>0</v>
+        <v>SE-22-02</v>
       </c>
       <c r="B43" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A43,'Database Export'!A43)</f>
